--- a/datf_core/test/testcases/testcase9_json_parquet_match.xlsx
+++ b/datf_core/test/testcases/testcase9_json_parquet_match.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82564990-20A0-42CB-AC17-8E88C8A39052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC24CB9-D85E-473A-B8D0-5AC3DAE35872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,10 +138,10 @@
     <t>testcase9_json_parquet_match</t>
   </si>
   <si>
-    <t>/app/test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
